--- a/biology/Zoologie/Dipsacaster/Dipsacaster.xlsx
+++ b/biology/Zoologie/Dipsacaster/Dipsacaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipsacaster est un genre d'étoiles de mer de la famille des Astropectinidae[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipsacaster est un genre d'étoiles de mer de la famille des Astropectinidae. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est aussi connu par des fossiles européens, ayant vécu au cours du Crétacé, de l'Hauterivien jusqu'au Maastrichtien, il y a environ entre 130 et 66 Ma (millions d'années). Il est connu en France (Haute-Garonne) et au Maroc (province de Taourirt)[1].
-De nombreuses espèces ont été décrites, dont au moins deux seraient valides selon Daniel B. Blake et Roland Reboul (2011) : D. jadeti et D. africanus[1].     
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est aussi connu par des fossiles européens, ayant vécu au cours du Crétacé, de l'Hauterivien jusqu'au Maastrichtien, il y a environ entre 130 et 66 Ma (millions d'années). Il est connu en France (Haute-Garonne) et au Maroc (province de Taourirt).
+De nombreuses espèces ont été décrites, dont au moins deux seraient valides selon Daniel B. Blake et Roland Reboul (2011) : D. jadeti et D. africanus.     
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des espèces selon World Register of Marine Species                               (20 janvier 2014)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste des espèces selon World Register of Marine Species                               (20 janvier 2014) :
 Dipsacaster anoplus Fisher, 1910
 Dipsacaster antillensis Halpern, 1968
 Dipsacaster borealis Fisher, 1910
@@ -560,8 +576,43 @@
 Dipsacaster pentagonalis Alcock, 1893
 Dipsacaster pretiosus (Döderlein, 1902)
 Dipsacaster sagaminus Hayashi, 1973
-Dipsacaster sladeni Alcock, 1893
-Arbre phylogénique
+Dipsacaster sladeni Alcock, 1893</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dipsacaster</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dipsacaster</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Arbre phylogénique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
